--- a/Home_Loan/Book2.xlsx
+++ b/Home_Loan/Book2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Prestige" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>On Booking</t>
   </si>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1220,12 +1220,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
-        <v>644395</v>
+        <v>444395</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>
@@ -1234,28 +1234,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1">
-        <v>700000</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11">
-        <v>444395</v>
+      <c r="B5" s="1">
+        <v>300000</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11">
+        <v>844395</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -1268,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H509"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F43"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25255,7 +25284,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Home_Loan/Book2.xlsx
+++ b/Home_Loan/Book2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prestige" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
   <si>
     <t>On Booking</t>
   </si>
@@ -166,13 +166,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Need to be paid</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
     <t>Paid by Cheque</t>
+  </si>
+  <si>
+    <t>Franklin Charges</t>
+  </si>
+  <si>
+    <t>Paid through portal</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1179,20 +1182,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1203,10 +1206,10 @@
         <v>44</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1214,77 +1217,76 @@
         <v>500000</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>444395</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
+      <c r="C3" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>200000</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
+      <c r="C4" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1">
+        <v>10900</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
         <v>300000</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="11">
-        <v>844395</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <v>20000</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11">
+        <v>844395</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Home_Loan/Book2.xlsx
+++ b/Home_Loan/Book2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prestige" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>On Booking</t>
   </si>
@@ -166,13 +166,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Need to be paid</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
     <t>Paid by Cheque</t>
+  </si>
+  <si>
+    <t>1st Installment to Prestige</t>
+  </si>
+  <si>
+    <t>2nd Installment to Prestige</t>
+  </si>
+  <si>
+    <t>3rd Installment to Prestige</t>
+  </si>
+  <si>
+    <t>Franking Charges</t>
   </si>
 </sst>
 </file>
@@ -216,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -261,11 +270,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -327,6 +360,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1179,20 +1215,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1203,10 +1239,10 @@
         <v>44</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1214,78 +1250,244 @@
         <v>500000</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>444395</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
+      <c r="C3" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>200000</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
+      <c r="C4" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>300000</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>10900</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1144396</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>457758</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="11">
-        <v>844395</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <v>20000</v>
-      </c>
+      <c r="B8" s="1">
+        <v>457758</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>457758</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,10 +1525,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
@@ -13522,10 +13724,10 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
